--- a/medicine/Enfance/La_Rue,_l'École,_le_Square/La_Rue,_l'École,_le_Square.xlsx
+++ b/medicine/Enfance/La_Rue,_l'École,_le_Square/La_Rue,_l'École,_le_Square.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Rue,_l%27%C3%89cole,_le_Square</t>
+          <t>La_Rue,_l'École,_le_Square</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Rue, l'École, le Square est un album d'Anne Sylvestre pour les enfants, paru dans sa maison de production en 1979. L'album alterne chansons et petites histoires racontées par la chanteuse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Rue,_l%27%C3%89cole,_le_Square</t>
+          <t>La_Rue,_l'École,_le_Square</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet album rassemble les titres de trois EP sortis en 1975-1976 : La Rue[1] (pistes 1-4), L'École[2] (pistes 5-9) et Le Square[3] (pistes 10-14).
-L'album est sorti en 1979. Il a été réédité par EPM Musique en 2006 sous le titre La Ville aux enfants[4]. 
-« Ces chansons évoquent la ville, l'école ou encore le square et ses jeux pour enfants, tels que le toboggan ou la balançoire[5]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet album rassemble les titres de trois EP sortis en 1975-1976 : La Rue (pistes 1-4), L'École (pistes 5-9) et Le Square (pistes 10-14).
+L'album est sorti en 1979. Il a été réédité par EPM Musique en 2006 sous le titre La Ville aux enfants. 
+« Ces chansons évoquent la ville, l'école ou encore le square et ses jeux pour enfants, tels que le toboggan ou la balançoire. »
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Rue,_l%27%C3%89cole,_le_Square</t>
+          <t>La_Rue,_l'École,_le_Square</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les chansons sont écrites et composées par Anne Sylvestre.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Rue,_l%27%C3%89cole,_le_Square</t>
+          <t>La_Rue,_l'École,_le_Square</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Production : Anne Sylvestre
 Direction Musicale : François Rauber
